--- a/设计/HTTP接口.xlsx
+++ b/设计/HTTP接口.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\HummingBird\设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B65F0-BB67-4D70-9193-9AE0DBE348BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2665F5C0-31BF-4734-A4F7-47D5EEDCAD08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="17550" yWindow="10095" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资源列表" sheetId="1" r:id="rId1"/>
+    <sheet name="操作列表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="128">
   <si>
     <t>资源</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -95,18 +96,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>分类名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>板块名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>发布状态</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -143,48 +132,528 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片引用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章引用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>候选键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            操作
+资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么资源引用了板块？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选，必须属于以下板块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密，必填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当我更改板块的名称后，“分类”或“文章”中的引用也会随之发生变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看上去也能够通过引用找到文章</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是！如果有两个用户，用户A先获取了一个“分类”的数据，然后用户B修改了一个板块的名称。
+如果这个板块刚好被用户A读取的“分类”引用，那么当用户A通过之前获得的“分类”数据获取“板块”
+信息后，就会发现找不到这个“板块”。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>板块ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前系统只有一个用户，系统在初始化的时候确定用户的名称和密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建文章</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台是一个SPA，后台只需要发一次页面就可以了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改分类信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得分类信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建板块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除板块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改板块信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得板块信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得所有板块的信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一个板块下的所有分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改网站介绍信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增本地图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改图片信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看图片信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改文章</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发布状态</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改文章</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板块</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改文章</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分类</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改文章</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改文章</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按照ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除文章</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按照ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批量删除文章</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照板块筛选文章，每次只能选择一个板块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照分类筛选一个板块中的文章，每次只能选择
+一个分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定返回字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个id精确选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个ID批量获取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文章的标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文章的创建日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文章的最近修改日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文章的内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文章引用的图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文章引用的图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字符串</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/post</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?articleId={articleId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ content: string }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ title: string }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ category: string }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ section: string }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?articleId[]={articleId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ refImages: [url] }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源获取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?sectionId={sectionId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?sectionId={sectionId}&amp;categoryId={categoryId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?fields[]=title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?fields[]=lastModifiedDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?fields[]=firstPublishedDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?fields[]=content</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?fields[]=refImages</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ fields... }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照字段值筛选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前不能批量更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在URL中指定Id以筛选出更新对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过JSON格式指定字段的值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持按照Id进行单个和批量更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源新建</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径：/api/{{resourceId}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正整数</t>
+  </si>
+  <si>
+    <t>正整数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>数字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>md5加密</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片引用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端从数据库中读取
-图片ID再将其转化成URL发出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章引用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>候选键</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +736,85 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +831,24 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -450,10 +1012,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -463,6 +1025,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -476,19 +1245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -496,19 +1252,8 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,83 +1265,56 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -604,7 +1322,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -615,21 +1333,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,10 +1373,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,36 +1385,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,65 +1547,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="6" builtinId="17"/>
+    <cellStyle name="差" xfId="4" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="计算" xfId="5" builtinId="22"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1040,21 +1858,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,554 +1896,1220 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="J4" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="J8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J15" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="J16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="2:15" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="J17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="2:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="45" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C20" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="47" t="s">
+      <c r="F20" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D21" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="2:15" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="E25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="47" t="s">
+      <c r="C26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="49"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="F26" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:15" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="F31" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="40"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>21</v>
+      <c r="F32" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="7"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G33" s="4"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="33" t="s">
+    <row r="35" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E37" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F46" s="7"/>
+      <c r="F37" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F46" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B31:F31"/>
+  <mergeCells count="8">
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="B17:F17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E4803-DCDE-462F-A2BD-6CE56345CC06}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="67.5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="64"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/设计/HTTP接口.xlsx
+++ b/设计/HTTP接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\HummingBird\设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23324\Documents\Codes\Hummingbird\设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2665F5C0-31BF-4734-A4F7-47D5EEDCAD08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD7CCB-F126-4A8E-BA3A-D98CD4DA2788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17550" yWindow="10095" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资源列表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="127">
   <si>
     <t>资源</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -178,10 +178,6 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -526,10 +522,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/api/post</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -654,6 +646,10 @@
   </si>
   <si>
     <t>数字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1461,9 +1457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,9 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1517,6 +1507,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,24 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1860,23 +1850,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="11.375" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,25 +1886,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+    <row r="2" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="J4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-    </row>
-    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
+    </row>
+    <row r="5" spans="1:15" ht="28" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1946,12 +1936,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>11</v>
@@ -1978,7 +1968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
@@ -1991,7 +1981,7 @@
       <c r="E7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="88" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="33" t="s">
@@ -2010,7 +2000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
         <v>20</v>
       </c>
@@ -2023,7 +2013,7 @@
       <c r="E8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="85"/>
+      <c r="F8" s="89"/>
       <c r="J8" s="33" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2054,25 +2044,25 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
@@ -2086,27 +2076,12 @@
         <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>10</v>
@@ -2118,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -2127,9 +2102,9 @@
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>10</v>
@@ -2141,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -2150,7 +2125,7 @@
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
@@ -2166,8 +2141,8 @@
       <c r="F13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="43" t="s">
-        <v>52</v>
+      <c r="J13" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
@@ -2175,7 +2150,7 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
@@ -2183,13 +2158,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -2198,28 +2173,28 @@
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J15" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J15" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="54" t="s">
         <v>1</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="J16" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
@@ -2227,16 +2202,16 @@
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="2:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="81" t="s">
+    <row r="17" spans="2:15" ht="20" x14ac:dyDescent="0.3">
+      <c r="B17" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
       <c r="J17" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
@@ -2244,7 +2219,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2267,12 +2242,12 @@
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="2:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>11</v>
@@ -2283,30 +2258,30 @@
       <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
+      <c r="J19" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="31"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="45" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>40</v>
+      <c r="F20" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -2315,21 +2290,21 @@
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
     </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
+    <row r="21" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>40</v>
+      <c r="F21" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -2338,7 +2313,7 @@
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -2351,14 +2326,14 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
     </row>
-    <row r="23" spans="2:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="78" t="s">
+    <row r="23" spans="2:15" ht="20" x14ac:dyDescent="0.3">
+      <c r="B23" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -2366,29 +2341,29 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="50" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>11</v>
@@ -2400,8 +2375,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+    <row r="26" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="52" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -2414,20 +2389,20 @@
         <v>11</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" ht="20" x14ac:dyDescent="0.3">
+      <c r="B29" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2444,9 +2419,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>10</v>
@@ -2461,7 +2436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
         <v>26</v>
       </c>
@@ -2475,11 +2450,11 @@
         <v>11</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G33" s="4"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -2487,26 +2462,26 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="G34" s="4"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="81" t="s">
+    <row r="35" spans="1:15" ht="20" x14ac:dyDescent="0.3">
+      <c r="B35" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="6" t="s">
         <v>6</v>
@@ -2528,20 +2503,20 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="87" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="74" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="4"/>
@@ -2549,28 +2524,28 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="90" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="91" t="s">
-        <v>40</v>
+      <c r="F38" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="20" t="s">
         <v>29</v>
       </c>
@@ -2578,13 +2553,13 @@
         <v>25</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2594,7 +2569,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -2603,7 +2578,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="E41" s="4"/>
@@ -2613,7 +2588,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2624,7 +2599,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2636,13 +2611,13 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F46" s="4"/>
     </row>
   </sheetData>
@@ -2667,10 +2642,10 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -2681,435 +2656,435 @@
     <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="66" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="67"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="64"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="62"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>